--- a/residentsfulllist.xlsx
+++ b/residentsfulllist.xlsx
@@ -433,12 +433,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="10"/>
-    <col customWidth="1" max="2" min="2" width="10"/>
+    <col customWidth="1" max="1" min="1" width="7"/>
+    <col customWidth="1" max="2" min="2" width="8"/>
     <col customWidth="1" max="3" min="3" width="20"/>
     <col customWidth="1" max="4" min="4" width="20"/>
     <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="20"/>
+    <col customWidth="1" max="6" min="6" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
